--- a/InputFiles/CCDI/TC03_CCDI_phs003519_DiagBasis-Clinical_SamAnatSite-C47PeriphNervAutonNervSyst_DataCateg-Sequencing.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_phs003519_DiagBasis-Clinical_SamAnatSite-C47PeriphNervAutonNervSyst_DataCateg-Sequencing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A357606-AFEA-4B24-B020-85A3CAB50259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681D3E1-3E48-43CC-A9C8-4EE9E5C6AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="35490" yWindow="2205" windowWidth="22275" windowHeight="12480" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,34 +192,6 @@
     <t>TC03_CCDI_phs003519_DiagBasis-Clinical_SamAnatSite-C47PeriphNervAutonNervSyst_DataCateg-Sequencing_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    CASE 
-        WHEN COUNT(DISTINCT seq.id) &gt;= 1000 
-        THEN printf('%,d', COUNT(DISTINCT seq.id)) 
-        ELSE CAST(COUNT(DISTINCT seq.id) AS TEXT)
-    END AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"  
-LEFT JOIN
-    df_survival srv ON prt.id = srv."participant.id"   
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-WHERE 
-    std.dbgap_accession = 'phs003519'  
-    AND dgn.diagnosis_basis = 'Clinical'
-    AND smp.anatomic_site = 'C47 : PERIPHERAL NERVES AND AUTONOMIC NERVOUS SYSTEM'
-        and seq.data_category= 'Sequencing';</t>
-  </si>
-  <si>
     <t>with diagnosis1 as (
 select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
 diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
@@ -343,6 +315,30 @@
         and seq.data_category= 'Sequencing'
  ORDER BY  fd.file_name
 limit 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
+    COUNT(DISTINCT prt.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT seq.id)  AS "Files"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"  
+LEFT JOIN
+    df_survival srv ON prt.id = srv."participant.id"   
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+WHERE 
+    std.dbgap_accession = 'phs003519'  
+    AND dgn.diagnosis_basis = 'Clinical'
+    AND smp.anatomic_site = 'C47 : PERIPHERAL NERVES AND AUTONOMIC NERVOUS SYSTEM'
+        and seq.data_category= 'Sequencing';</t>
   </si>
 </sst>
 </file>
@@ -744,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -804,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -813,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>

--- a/InputFiles/CCDI/TC03_CCDI_phs003519_DiagBasis-Clinical_SamAnatSite-C47PeriphNervAutonNervSyst_DataCateg-Sequencing.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_phs003519_DiagBasis-Clinical_SamAnatSite-C47PeriphNervAutonNervSyst_DataCateg-Sequencing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681D3E1-3E48-43CC-A9C8-4EE9E5C6AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C991CB8-D1A1-4A30-B193-4041A43F5A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35490" yWindow="2205" windowWidth="22275" windowHeight="12480" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,62 +261,6 @@
    smp.sample_id ASC;</t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category, file_description, file_type, file_size,file_access,  "sample.id" from df_sequencing_file)
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access",
-    std.dbgap_accession AS "Study ID",
-    prt.participant_id AS "Participant ID",
-    smp.sample_id AS "Sample ID"    
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-Left JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"  
-JOIN 
-    file_data fd ON smp.id = fd."sample.id"
-Left join 
-df_sequencing_file seq On smp.id = seq."sample.id"
-WHERE 
-  std.dbgap_accession = 'phs003519'   AND dgn.diagnosis_basis = 'Clinical'
-    AND smp.anatomic_site = 'C47 : PERIPHERAL NERVES AND AUTONOMIC NERVOUS SYSTEM'
-        and seq.data_category= 'Sequencing'
- ORDER BY  fd.file_name
-limit 100;</t>
-  </si>
-  <si>
     <t>SELECT
     COUNT(DISTINCT std.dbgap_accession) AS "Studies",
     COUNT(DISTINCT prt.participant_id) AS "Participants",
@@ -339,6 +283,65 @@
     AND dgn.diagnosis_basis = 'Clinical'
     AND smp.anatomic_site = 'C47 : PERIPHERAL NERVES AND AUTONOMIC NERVOUS SYSTEM'
         and seq.data_category= 'Sequencing';</t>
+  </si>
+  <si>
+    <t>SELECT Distinct 
+    seq.file_name AS "File Name",
+    seq.data_category AS "Data Category",
+    COALESCE(seq.file_description, '') AS "File Description",
+    seq.file_type AS "File Type",
+    CASE     
+        WHEN seq.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(seq.file_size / (1024.0 * 1024.0 * 1024.0), 2) = 
+                     CAST(ROUND(seq.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(CAST(ROUND(seq.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+                ELSE ROUND(seq.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+            END
+        WHEN seq.file_size &gt;= 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(seq.file_size / (1024.0 * 1024.0), 2) = 
+                     CAST(ROUND(seq.file_size / (1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(CAST(ROUND(seq.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+                ELSE ROUND(seq.file_size / (1024.0 * 1024.0), 2) || ' MB'
+            END
+        WHEN seq.file_size &gt;= 1024 THEN 
+            CASE 
+                WHEN ROUND(seq.file_size / 1024.0, 2) = 
+                     CAST(ROUND(seq.file_size / 1024.0, 0) AS INT) 
+                THEN CAST(CAST(ROUND(seq.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+                ELSE ROUND(seq.file_size / 1024.0, 2) || ' KB'
+            END
+        ELSE 
+            CASE 
+                WHEN ROUND(seq.file_size, 2) = 
+                     CAST(ROUND(seq.file_size, 0) AS INT) 
+                THEN CAST(CAST(ROUND(seq.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+                ELSE ROUND(seq.file_size, 2) || ' Bytes'
+            END
+    END AS "File Size",
+    seq.file_access AS "File Access",
+    std.dbgap_accession AS "Study ID",
+    prt.participant_id AS "Participant ID",
+    smp.sample_id AS "Sample ID"    
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"  
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+                          AND seq.library_source_molecule = 'Genomic'
+                          AND seq.library_source_material = 'Single-cells'
+WHERE 
+    std.dbgap_accession = 'phs003519' 
+    AND std.study_status = 'Completed'
+    AND seq."sample.id" IS NOT NULL
+ORDER BY  seq.file_name asc
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -809,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
